--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>Shaik Khaleel</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>New Transmittal from Automation</t>
   </si>
   <si>
-    <t>Anupama D. Thumrugoti</t>
-  </si>
-  <si>
     <t>TxType</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>ReviewDocument</t>
+  </si>
+  <si>
+    <t>AutoTestAdmin</t>
+  </si>
+  <si>
+    <t>AutoTestUser</t>
   </si>
 </sst>
 </file>
@@ -529,163 +529,163 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>To</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>AutoTestUser</t>
+  </si>
+  <si>
+    <t>Reply All- Message for New transmittal</t>
+  </si>
+  <si>
+    <t>ReplyAll</t>
   </si>
 </sst>
 </file>
@@ -503,9 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -644,7 +652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="16.5" customHeight="1">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -686,6 +694,64 @@
       </c>
       <c r="O4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>To</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>ReplyAll</t>
+  </si>
+  <si>
+    <t>AutoTestAdmin@@AutoTestUser</t>
   </si>
 </sst>
 </file>
@@ -509,11 +512,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -754,6 +755,52 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>To</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Forward</t>
-  </si>
-  <si>
-    <t>SPInstall</t>
   </si>
   <si>
     <t>Approved</t>
@@ -525,7 +522,7 @@
     <col min="6" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="25.85546875" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
   </cols>
@@ -550,19 +547,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -579,10 +576,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -597,30 +594,30 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -635,30 +632,27 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" customHeight="1">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -673,16 +667,16 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
@@ -691,18 +685,18 @@
         <v>15</v>
       </c>
       <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>16</v>
-      </c>
-      <c r="O4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -717,21 +711,21 @@
         <v>14</v>
       </c>
       <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
       <c r="O5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -746,18 +740,18 @@
         <v>14</v>
       </c>
       <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -775,12 +769,12 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -798,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
+    <sheet name="Transmittals_New_ActionRequired" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="30">
   <si>
     <t>To</t>
   </si>
@@ -800,4 +801,154 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="33">
   <si>
     <t>To</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>AutoTestAdmin@@AutoTestUser</t>
+  </si>
+  <si>
+    <t>DelegateTo</t>
+  </si>
+  <si>
+    <t>Delegate</t>
+  </si>
+  <si>
+    <t>Delegate- Message for New transmittal</t>
   </si>
 </sst>
 </file>
@@ -510,9 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -523,12 +534,12 @@
     <col min="6" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="25.85546875" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,10 +583,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -613,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -651,7 +665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -688,11 +702,11 @@
       <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -717,11 +731,11 @@
       <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -746,11 +760,11 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -773,7 +787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -794,6 +808,35 @@
       </c>
       <c r="M8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
     <sheet name="Transmittals_New_ActionRequired" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="30">
   <si>
     <t>To</t>
   </si>
@@ -110,15 +110,6 @@
   </si>
   <si>
     <t>AutoTestAdmin@@AutoTestUser</t>
-  </si>
-  <si>
-    <t>DelegateTo</t>
-  </si>
-  <si>
-    <t>Delegate</t>
-  </si>
-  <si>
-    <t>Delegate- Message for New transmittal</t>
   </si>
 </sst>
 </file>
@@ -519,11 +510,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -534,12 +523,12 @@
     <col min="6" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="25.85546875" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,19 +572,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -627,13 +610,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -665,7 +645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -681,38 +661,17 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -726,91 +685,124 @@
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
+    <row r="8" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:15" ht="16.5" customHeight="1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -827,16 +819,190 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
       </c>
       <c r="O9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="P9" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="32">
   <si>
     <t>To</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>AutoTestAdmin@@AutoTestUser</t>
+  </si>
+  <si>
+    <t>Delegate- Message for New transmittal</t>
+  </si>
+  <si>
+    <t>Delegate</t>
   </si>
 </sst>
 </file>
@@ -510,9 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -1003,6 +1011,35 @@
       </c>
       <c r="M15" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="33">
   <si>
     <t>To</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Delegate</t>
+  </si>
+  <si>
+    <t>DelegateTo</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -531,12 +534,12 @@
     <col min="6" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="25.85546875" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,10 +583,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -618,7 +624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -653,7 +659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -676,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -699,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -736,11 +742,11 @@
       <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -777,11 +783,11 @@
       <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -806,11 +812,11 @@
       <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -835,11 +841,11 @@
       <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -864,11 +870,11 @@
       <c r="M10" t="s">
         <v>28</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -893,11 +899,11 @@
       <c r="M11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -932,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -967,7 +973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -990,7 +996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1035,10 +1041,10 @@
       <c r="M16" t="s">
         <v>31</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>26</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,15 @@
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
     <sheet name="Transmittals_New_ActionRequired" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transmittals_New!$A$1:$Q$16</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="54">
   <si>
     <t>To</t>
   </si>
@@ -119,6 +122,69 @@
   </si>
   <si>
     <t>DelegateTo</t>
+  </si>
+  <si>
+    <t>RefID</t>
+  </si>
+  <si>
+    <t>LATFLD-4</t>
+  </si>
+  <si>
+    <t>LATFLD-39</t>
+  </si>
+  <si>
+    <t>LATFLD-68</t>
+  </si>
+  <si>
+    <t>LATFLD-18</t>
+  </si>
+  <si>
+    <t>LATFLD-52</t>
+  </si>
+  <si>
+    <t>LATFLD-21</t>
+  </si>
+  <si>
+    <t>LATFLD-51</t>
+  </si>
+  <si>
+    <t>LATFLD-44</t>
+  </si>
+  <si>
+    <t>LATFLD-43</t>
+  </si>
+  <si>
+    <t>LATFLD-46</t>
+  </si>
+  <si>
+    <t>LATFLD-45</t>
+  </si>
+  <si>
+    <t>LATFLD-47</t>
+  </si>
+  <si>
+    <t>LATFLD-48</t>
+  </si>
+  <si>
+    <t>LATFLD-49</t>
+  </si>
+  <si>
+    <t>LATFLD-50</t>
+  </si>
+  <si>
+    <t>LATFLD-42</t>
+  </si>
+  <si>
+    <t>LATFLD-41</t>
+  </si>
+  <si>
+    <t>LATFLD-40</t>
+  </si>
+  <si>
+    <t>LATFLD-53</t>
+  </si>
+  <si>
+    <t>LATFLD-19</t>
   </si>
 </sst>
 </file>
@@ -519,533 +585,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1">
+    <row r="6" spans="1:17" ht="16.5" customHeight="1">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>26</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1">
+    <row r="7" spans="1:17" ht="16.5" customHeight="1">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
         <v>5</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>15</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1">
+    <row r="8" spans="1:17" ht="16.5" customHeight="1">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
         <v>5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>15</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>26</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1">
+    <row r="9" spans="1:17" ht="16.5" customHeight="1">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
         <v>5</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>15</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>26</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
         <v>27</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
         <v>27</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>28</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
         <v>5</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
         <v>5</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
         <v>5</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
         <v>5</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
         <v>30</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>31</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>26</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1057,144 +1296,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_S5_NR\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Transmittals_New_ActionRequired" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transmittals_New!$A$1:$Q$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transmittals_New!$A$1:$R$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="55">
   <si>
     <t>To</t>
   </si>
@@ -185,13 +185,16 @@
   </si>
   <si>
     <t>LATFLD-19</t>
+  </si>
+  <si>
+    <t>Mess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -206,6 +209,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,9 +245,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,11 +597,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -603,14 +613,15 @@
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -651,19 +662,22 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -694,14 +708,18 @@
       <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>1 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -732,14 +750,18 @@
       <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>2 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -758,14 +780,18 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>3 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N4" t="s">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -784,14 +810,18 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>4 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N5" t="s">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" customHeight="1">
+    <row r="6" spans="1:18" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -822,20 +852,24 @@
       <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>5 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N6" t="s">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>15</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1">
+    <row r="7" spans="1:18" ht="16.5" customHeight="1">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -866,20 +900,24 @@
       <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>6 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1">
+    <row r="8" spans="1:18" ht="16.5" customHeight="1">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -898,20 +936,24 @@
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>7 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N8" t="s">
         <v>5</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>15</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1">
+    <row r="9" spans="1:18" ht="16.5" customHeight="1">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -930,20 +972,24 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>8 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N9" t="s">
         <v>5</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>15</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -965,17 +1011,21 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>9 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N10" t="s">
         <v>27</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -997,17 +1047,21 @@
       <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>10 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N11" t="s">
         <v>27</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1038,14 +1092,18 @@
       <c r="K12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>11 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N12" t="s">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1076,14 +1134,18 @@
       <c r="K13" t="s">
         <v>23</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>12 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N13" t="s">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1102,14 +1164,18 @@
       <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>13 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N14" t="s">
         <v>5</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1128,14 +1194,18 @@
       <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>14 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N15" t="s">
         <v>5</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1154,20 +1224,24 @@
       <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>15 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N16" t="s">
         <v>30</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>31</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1198,20 +1272,24 @@
       <c r="K17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>16 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N17" t="s">
         <v>30</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>31</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1230,20 +1308,24 @@
       <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>17 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N18" t="s">
         <v>30</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>31</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>26</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1274,33 +1356,35 @@
       <c r="K19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>18 of 18 Message for New transmittal</v>
+      </c>
+      <c r="N19" t="s">
         <v>30</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>31</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -1310,14 +1394,15 @@
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1358,16 +1443,19 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1401,14 +1489,18 @@
       <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>1 of 2 Message for New transmittal</v>
+      </c>
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1442,10 +1534,14 @@
       <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>2 of 2 Message for New transmittal</v>
+      </c>
+      <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_S5_NR\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transmittals_New!$A$1:$R$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -751,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N3)</f>
         <v>2 of 18 Message for New transmittal</v>
       </c>
       <c r="N3" t="s">
@@ -781,7 +781,7 @@
         <v>14</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N4)</f>
         <v>3 of 18 Message for New transmittal</v>
       </c>
       <c r="N4" t="s">
@@ -811,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N5)</f>
         <v>4 of 18 Message for New transmittal</v>
       </c>
       <c r="N5" t="s">
@@ -853,7 +853,7 @@
         <v>23</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N6)</f>
         <v>5 of 18 Message for New transmittal</v>
       </c>
       <c r="N6" t="s">
@@ -901,7 +901,7 @@
         <v>23</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N7)</f>
         <v>6 of 18 Message for New transmittal</v>
       </c>
       <c r="N7" t="s">
@@ -937,7 +937,7 @@
         <v>14</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N8)</f>
         <v>7 of 18 Message for New transmittal</v>
       </c>
       <c r="N8" t="s">
@@ -973,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N9)</f>
         <v>8 of 18 Message for New transmittal</v>
       </c>
       <c r="N9" t="s">
@@ -1012,8 +1012,8 @@
         <v>14</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>9 of 18 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N10)</f>
+        <v>9 of 18 Reply All- Message for New transmittal</v>
       </c>
       <c r="N10" t="s">
         <v>27</v>
@@ -1048,8 +1048,8 @@
         <v>14</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>10 of 18 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N11)</f>
+        <v>10 of 18 Reply All- Message for New transmittal</v>
       </c>
       <c r="N11" t="s">
         <v>27</v>
@@ -1093,7 +1093,7 @@
         <v>23</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N12)</f>
         <v>11 of 18 Message for New transmittal</v>
       </c>
       <c r="N12" t="s">
@@ -1135,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N13)</f>
         <v>12 of 18 Message for New transmittal</v>
       </c>
       <c r="N13" t="s">
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N14)</f>
         <v>13 of 18 Message for New transmittal</v>
       </c>
       <c r="N14" t="s">
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N15)</f>
         <v>14 of 18 Message for New transmittal</v>
       </c>
       <c r="N15" t="s">
@@ -1225,8 +1225,8 @@
         <v>14</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>15 of 18 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N16)</f>
+        <v>15 of 18 Delegate- Message for New transmittal</v>
       </c>
       <c r="N16" t="s">
         <v>30</v>
@@ -1273,8 +1273,8 @@
         <v>23</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>16 of 18 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N17)</f>
+        <v>16 of 18 Delegate- Message for New transmittal</v>
       </c>
       <c r="N17" t="s">
         <v>30</v>
@@ -1309,8 +1309,8 @@
         <v>14</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>17 of 18 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N18)</f>
+        <v>17 of 18 Delegate- Message for New transmittal</v>
       </c>
       <c r="N18" t="s">
         <v>30</v>
@@ -1357,8 +1357,8 @@
         <v>23</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>18 of 18 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N19)</f>
+        <v>18 of 18 Delegate- Message for New transmittal</v>
       </c>
       <c r="N19" t="s">
         <v>30</v>
@@ -1535,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N3)</f>
         <v>2 of 2 Message for New transmittal</v>
       </c>
       <c r="N3" t="s">

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForApproval.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
@@ -15,6 +15,9 @@
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
     <sheet name="Transmittals_New_ActionRequired" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transmittals_New!$A$1:$R$16</definedName>
   </definedNames>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="50">
   <si>
     <t>To</t>
   </si>
@@ -91,28 +94,13 @@
     <t>AttachSupportDocumentName</t>
   </si>
   <si>
-    <t>Document Register</t>
-  </si>
-  <si>
-    <t>Test 1 ta.docx</t>
-  </si>
-  <si>
     <t>ReviewDocument</t>
   </si>
   <si>
-    <t>AutoTestAdmin</t>
-  </si>
-  <si>
-    <t>AutoTestUser</t>
-  </si>
-  <si>
     <t>Reply All- Message for New transmittal</t>
   </si>
   <si>
     <t>ReplyAll</t>
-  </si>
-  <si>
-    <t>AutoTestAdmin@@AutoTestUser</t>
   </si>
   <si>
     <t>Delegate- Message for New transmittal</t>
@@ -266,6 +254,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="user_credentials"/>
+      <sheetName val="DocumentDetails"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>AutoTestAdmin</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>AutoTestUser</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Document Register</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Test 1 ta.docx</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Test 1 ta.docx</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,20 +640,20 @@
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="17" width="13" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,13 +686,13 @@
         <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -671,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>11</v>
@@ -679,10 +709,11 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -696,17 +727,21 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
+      <c r="H2" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I2" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J2" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K2" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
@@ -721,10 +756,11 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -738,17 +774,21 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
+      <c r="H3" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I3" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J3" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K3" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M3" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N3)</f>
@@ -763,10 +803,11 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B4" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -793,10 +834,11 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="B5" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -823,10 +865,11 @@
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -840,17 +883,21 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
+      <c r="H6" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I6" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J6" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K6" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M6" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N6)</f>
@@ -862,8 +909,9 @@
       <c r="O6" t="s">
         <v>15</v>
       </c>
-      <c r="P6" t="s">
-        <v>26</v>
+      <c r="P6" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R6" t="s">
         <v>16</v>
@@ -871,10 +919,11 @@
     </row>
     <row r="7" spans="1:18" ht="16.5" customHeight="1">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="B7" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -888,17 +937,21 @@
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
+      <c r="H7" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I7" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J7" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K7" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M7" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N7)</f>
@@ -910,8 +963,9 @@
       <c r="O7" t="s">
         <v>15</v>
       </c>
-      <c r="P7" t="s">
-        <v>26</v>
+      <c r="P7" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R7" t="s">
         <v>17</v>
@@ -919,10 +973,11 @@
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="B8" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -946,8 +1001,9 @@
       <c r="O8" t="s">
         <v>15</v>
       </c>
-      <c r="P8" t="s">
-        <v>26</v>
+      <c r="P8" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R8" t="s">
         <v>16</v>
@@ -955,10 +1011,11 @@
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
       <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -982,8 +1039,9 @@
       <c r="O9" t="s">
         <v>15</v>
       </c>
-      <c r="P9" t="s">
-        <v>26</v>
+      <c r="P9" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R9" t="s">
         <v>17</v>
@@ -991,13 +1049,15 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="B10" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C10" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -1016,10 +1076,10 @@
         <v>9 of 18 Reply All- Message for New transmittal</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
         <v>16</v>
@@ -1027,13 +1087,15 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="B11" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C11" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1052,10 +1114,10 @@
         <v>10 of 18 Reply All- Message for New transmittal</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
         <v>17</v>
@@ -1063,10 +1125,11 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B12" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -1080,17 +1143,21 @@
       <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
+      <c r="H12" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I12" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J12" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K12" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N12)</f>
@@ -1105,10 +1172,11 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B13" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1122,17 +1190,21 @@
       <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
+      <c r="H13" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I13" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J13" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K13" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M13" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N13)</f>
@@ -1147,10 +1219,11 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B14" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1177,10 +1250,11 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="B15" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1207,10 +1281,11 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B16" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1229,13 +1304,14 @@
         <v>15 of 18 Delegate- Message for New transmittal</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="s">
         <v>26</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R16" t="s">
         <v>16</v>
@@ -1243,10 +1319,11 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="B17" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1260,30 +1337,35 @@
       <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" t="s">
-        <v>23</v>
+      <c r="H17" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I17" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J17" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K17" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M17" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N17)</f>
         <v>16 of 18 Delegate- Message for New transmittal</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" t="s">
         <v>26</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R17" t="s">
         <v>16</v>
@@ -1291,10 +1373,11 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="B18" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1313,13 +1396,14 @@
         <v>17 of 18 Delegate- Message for New transmittal</v>
       </c>
       <c r="N18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" t="s">
         <v>26</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R18" t="s">
         <v>17</v>
@@ -1327,10 +1411,11 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="B19" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1344,30 +1429,35 @@
       <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" t="s">
-        <v>23</v>
+      <c r="H19" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I19" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J19" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K19" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N19)</f>
         <v>18 of 18 Delegate- Message for New transmittal</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" t="s">
         <v>26</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R19" t="s">
         <v>17</v>
@@ -1377,6 +1467,9 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="I2:I3 I6:I7 I12:I13 I17 I19" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1384,7 +1477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -1404,7 +1499,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1437,13 +1532,13 @@
         <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -1457,13 +1552,15 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1477,17 +1574,21 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
+      <c r="H2" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I2" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J2" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K2" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
@@ -1502,13 +1603,15 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B3" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C3" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1522,17 +1625,21 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
+      <c r="H3" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I3" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J3" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K3" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M3" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N3)</f>
